--- a/Bar.xlsx
+++ b/Bar.xlsx
@@ -134,243 +134,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Custom Bar Chart</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="stacked"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Bar'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Bar'!$A$2:$A$11</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Bar'!$B$2:$B$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Bar'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Bar'!$A$2:$A$11</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Bar'!$C$2:$C$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Bar'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Bar'!$A$2:$A$11</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Bar'!$D$2:$D$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'Bar'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Bar'!$A$2:$A$11</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Bar'!$E$2:$E$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'Bar'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Bar'!$A$2:$A$11</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Bar'!$F$2:$F$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="10"/>
-        <overlap val="100"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Categories</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Values</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="10800000" cy="5400000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,8 +685,447 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/14/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12/16/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12/17/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/18/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/19/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12/20/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12/22/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12/23/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12/24/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12/25/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12/26/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12/27/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/28/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/29/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12/31/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bar.xlsx
+++ b/Bar.xlsx
@@ -136,6 +136,246 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Custom Bar Chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Bar'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Bar'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Bar'!$B$2:$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Bar'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Bar'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Bar'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Bar'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Bar'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Bar'!$D$2:$D$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Bar'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Bar'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Bar'!$E$2:$E$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'Bar'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Bar'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Bar'!$F$2:$F$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Categories</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="low"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Values</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="low"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10800000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -425,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,447 +925,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12/11/2024</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12/12/2024</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12/13/2024</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>12/14/2024</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>12/15/2024</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>12/16/2024</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>12/17/2024</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>12/18/2024</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>12/19/2024</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>12/20/2024</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>12/21/2024</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>12/22/2024</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>12/23/2024</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>12/24/2024</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>12/25/2024</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>12/26/2024</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>12/27/2024</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>12/28/2024</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>12/29/2024</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>12/31/2024</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bar.xlsx
+++ b/Bar.xlsx
@@ -149,8 +149,20 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Custom Bar Chart</a:t>
+              <a:t>Bar Chart Title</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr/>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:endParaRPr>
           </a:p>
         </rich>
       </tx>
@@ -279,9 +291,6 @@
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -341,7 +350,7 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="b"/>
+      <legendPos val="tr"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
